--- a/cosine_similarities_analysis.xlsx
+++ b/cosine_similarities_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>cos_sim_add</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>original_pair</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -546,6 +551,9 @@
       </c>
       <c r="M2" t="n">
         <v>0.6133578355548872</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.3566897535651615</v>
       </c>
     </row>
     <row r="3">
@@ -600,6 +608,9 @@
       <c r="M3" t="n">
         <v>0.8222022813780036</v>
       </c>
+      <c r="N3" t="n">
+        <v>0.5149476692253212</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -653,6 +664,9 @@
       <c r="M4" t="n">
         <v>0.6657898235864274</v>
       </c>
+      <c r="N4" t="n">
+        <v>0.3328949117932137</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -706,6 +720,9 @@
       <c r="M5" t="n">
         <v>0.6755279134062675</v>
       </c>
+      <c r="N5" t="n">
+        <v>0.06743725153572161</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -759,6 +776,9 @@
       <c r="M6" t="n">
         <v>0.7187494459261334</v>
       </c>
+      <c r="N6" t="n">
+        <v>0.4620813639364078</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -795,7 +815,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>absorb</t>
+          <t xml:space="preserve">Abuse </t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -811,6 +831,9 @@
       </c>
       <c r="M7" t="n">
         <v>0.2566680819897257</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.4589789411030216</v>
       </c>
     </row>
     <row r="8">
@@ -865,6 +888,9 @@
       <c r="M8" t="n">
         <v>0</v>
       </c>
+      <c r="N8" t="n">
+        <v>0.4466772441876595</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -918,6 +944,9 @@
       <c r="M9" t="n">
         <v>0</v>
       </c>
+      <c r="N9" t="n">
+        <v>0.4633990804401129</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -971,6 +1000,9 @@
       <c r="M10" t="n">
         <v>0</v>
       </c>
+      <c r="N10" t="n">
+        <v>0.6157736215636359</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1024,6 +1056,9 @@
       <c r="M11" t="n">
         <v>0.992392950606203</v>
       </c>
+      <c r="N11" t="n">
+        <v>0.4316008539430697</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1077,6 +1112,9 @@
       <c r="M12" t="n">
         <v>0.743257216317339</v>
       </c>
+      <c r="N12" t="n">
+        <v>0.4152736591332591</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1130,6 +1168,9 @@
       <c r="M13" t="n">
         <v>0.7878423809328244</v>
       </c>
+      <c r="N13" t="n">
+        <v>0.3492648972773089</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1183,6 +1224,9 @@
       <c r="M14" t="n">
         <v>0.999825538235661</v>
       </c>
+      <c r="N14" t="n">
+        <v>0.3309013939152329</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1236,6 +1280,9 @@
       <c r="M15" t="n">
         <v>0.9003641387630975</v>
       </c>
+      <c r="N15" t="n">
+        <v>0.3398623769483824</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1289,6 +1336,9 @@
       <c r="M16" t="n">
         <v>0.2428670676060369</v>
       </c>
+      <c r="N16" t="n">
+        <v>0.2428670676060369</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1342,6 +1392,9 @@
       <c r="M17" t="n">
         <v>0.6461389740577242</v>
       </c>
+      <c r="N17" t="n">
+        <v>0.1880882785023832</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1395,6 +1448,9 @@
       <c r="M18" t="n">
         <v>0.8692582998460086</v>
       </c>
+      <c r="N18" t="n">
+        <v>-0.05581960668830734</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1448,6 +1504,9 @@
       <c r="M19" t="n">
         <v>0.2739090136056541</v>
       </c>
+      <c r="N19" t="n">
+        <v>0.1903674402165263</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1501,6 +1560,9 @@
       <c r="M20" t="n">
         <v>1.067748253887405</v>
       </c>
+      <c r="N20" t="n">
+        <v>0.299508006032486</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1554,6 +1616,9 @@
       <c r="M21" t="n">
         <v>0.5664358014308725</v>
       </c>
+      <c r="N21" t="n">
+        <v>0.5664358014308725</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1607,6 +1672,9 @@
       <c r="M22" t="n">
         <v>1.5523795992183</v>
       </c>
+      <c r="N22" t="n">
+        <v>0.9242444880940182</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1660,6 +1728,9 @@
       <c r="M23" t="n">
         <v>1.019747178564928</v>
       </c>
+      <c r="N23" t="n">
+        <v>0.5089019823454131</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1713,6 +1784,9 @@
       <c r="M24" t="n">
         <v>0.5037243049103126</v>
       </c>
+      <c r="N24" t="n">
+        <v>0.4013323617022618</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1766,6 +1840,9 @@
       <c r="M25" t="n">
         <v>0.3426761063221499</v>
       </c>
+      <c r="N25" t="n">
+        <v>0.2169892474520203</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1819,6 +1896,9 @@
       <c r="M26" t="n">
         <v>0.6063640540815257</v>
       </c>
+      <c r="N26" t="n">
+        <v>0.3949646915641254</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1872,6 +1952,9 @@
       <c r="M27" t="n">
         <v>1.009759358037477</v>
       </c>
+      <c r="N27" t="n">
+        <v>0.3051489189554034</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1925,6 +2008,9 @@
       <c r="M28" t="n">
         <v>0.104213559963506</v>
       </c>
+      <c r="N28" t="n">
+        <v>0.2392586861957212</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1978,6 +2064,9 @@
       <c r="M29" t="n">
         <v>0.9678223301896446</v>
       </c>
+      <c r="N29" t="n">
+        <v>0.4752230991641072</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2030,6 +2119,9 @@
       </c>
       <c r="M30" t="n">
         <v>0.4812544451342888</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.3103177150743683</v>
       </c>
     </row>
   </sheetData>
